--- a/outputs/BOM_AUTO.xlsx
+++ b/outputs/BOM_AUTO.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,114 +422,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>DiCon P/N</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>MFG</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>MFG P/N</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>類別</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>阻值</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>容量</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>電壓</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>容差</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>功率</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>介質</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>尺寸</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>封裝</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>方向</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>其餘規格</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>正規化Description</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>顯示名20</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>判別比例</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>review_reason</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>NER_Result</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor_Name_Model</t>
         </is>
       </c>
     </row>
@@ -608,16 +586,6 @@
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('MP8904DD', 'O'), ('REG', 'O'), ('LINEAR', 'O'), ('POS', 'O'), ('ADJ', 'O'), ('2.5', 'Voltage'), ('-', 'Package'), ('6.5V', 'Voltage'), ('500mA', 'Current'), ('QFN8', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>IC2.56.5V-QFN8</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -678,16 +646,6 @@
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('CHARGE', 'O'), ('PUMP', 'O'), ('INVERTER', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('5', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>ICSOT-23-5</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -753,16 +711,6 @@
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('OPA', 'O'), ('OPA596', 'O'), ('85V', 'Voltage'), ('420uA', 'Current'), ('100V', 'Voltage'), ('/', 'Voltage'), ('ux', 'Voltage'), ('SOT23', 'Package'), ('-', 'Package'), ('5', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>IC85V100V/uxSOT23-5</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -823,16 +771,6 @@
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('FT234XD', 'O'), ('USB', 'Category'), ('TO', 'O'), ('BASIC', 'O'), ('UART', 'O'), ('DFN', 'Package'), ('-', 'Package'), ('12', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>ICUSBDFN-12</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -893,16 +831,6 @@
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('MUN12AD03', 'O'), ('-', 'O'), ('SEC', 'O'), ('4.5', 'Voltage'), ('-', 'Package'), ('17V', 'Voltage'), ('3A', 'Current'), ('uPOL', 'O'), ('Module', 'Category'), ('3x2.8mm', 'Size'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>ICModule4.517V-3x2.8mm</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -963,16 +891,6 @@
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('PIN', 'Category'), ('SOCKET', 'Category'), ('P', 'Size'), ('=', 'Size'), ('2.0mm', 'Size'), ('H', 'Size'), ('=', 'Size'), ('4.8mm', 'Size'), ('2x8Pin', 'Pin_Count'), ('Right', 'Type'), ('Angle', 'Type'), ('20u', 'O'), ('Plating', 'O'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>CONNPINSOCKETRightAngleP=2.0mmH=4.8mm2x8Pin</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1038,16 +956,6 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('EEPROM', 'O'), ('24LC512', 'O'), ('512KBIT', 'O'), ('400kHz', 'Frequency'), ('2.5', 'O'), ('~', 'O'), ('5.5V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>IC5.5VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1113,16 +1021,6 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('MP4560D', 'O'), ('3.8', 'O'), ('~', 'Voltage'), ('55V', 'Voltage'), ('2A', 'Current'), ('2MHz', 'Frequency'), ('REG', 'O'), ('BUCK', 'O'), ('ADJUSTABLE', 'O'), ('3x3', 'O'), ('QFN10', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>IC~55VQFN10</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1187,16 +1085,6 @@
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('Socket', 'Category'), ('1x7', 'Pin_Count'), ('P', 'Pin_Count'), ('=', 'Size'), ('1.5mm', 'Size'), ('1A', 'Current'), ('50V', 'Voltage'), ('Right', 'Type'), ('Angle', 'Type'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>CONNSocketRightAngle50V=1.5mm1x7P</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1257,16 +1145,6 @@
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('P', 'Size'), ('=', 'Size'), ('1.27mm', 'Size'), ('Dual', 'Type'), ('Right', 'Type'), ('Angle', 'Type'), ('2x5P', 'Pin_Count'), ('Gold', 'O'), ('Plated', 'O'), ('PA6T', 'O'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>CONNDualRightAngleP=1.27mm2x5P</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1331,16 +1209,6 @@
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('MX25R3235F', 'O'), ('FLSH', 'O'), ('32MBIT', 'Pin_Count'), ('SPI', 'O'), ('/', 'O'), ('QUAD', 'O'), ('I', 'O'), ('/', 'O'), ('O', 'O'), ('1.65', 'Voltage'), ('~', 'Voltage'), ('3.6V', 'Voltage'), ('High', 'O'), ('Performance', 'O'), ('SOP', 'Package'), ('-', 'Package'), ('8', 'Package'), ('(', 'IGNORE'), ('200mil', 'O'), (')', 'IGNORE'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>IC1.65~3.6VSOP-832MBIT</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1405,16 +1273,6 @@
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('VOLT', 'O'), ('REFERENCE', 'O'), ('LDO', 'O'), ('5V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>IC5VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1479,16 +1337,6 @@
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('GPA', 'O'), ('TLV9151IDBVR', 'O'), ('16V', 'Voltage'), ('4.5MHz', 'Frequency'), ('Rail', 'Type'), ('-', 'O'), ('to', 'O'), ('-', 'O'), ('Rail', 'Type'), ('SOT', 'Package'), ('-', 'Package'), ('235', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>ICRailRail16VSOT-235</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1558,16 +1406,6 @@
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>[('Logic', 'O'), ('IC', 'Category'), ('SN74LVC1G34', 'Package'), ('BUF', 'O'), ('NON', 'O'), ('-', 'O'), ('INVERT', 'O'), ('5.5V', 'Voltage'), ('SOT', 'Package'), ('-', 'Package'), ('235', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>IC5.5VSN74LVC1G34SOT-235</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1628,16 +1466,6 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('HEADER', 'Category'), ('Right', 'Type'), ('angle', 'Type'), ('P', 'Size'), ('=', 'Size'), ('2.0mm', 'Size'), ('H', 'Size'), ('=', 'Size'), ('6.4mm', 'Size'), ('2x5P', 'Pin_Count'), ('Nylon', 'O'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>CONNHEADERRightangleP=2.0mmH=6.4mm2x5P</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1702,16 +1530,6 @@
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('switches', 'Type'), ('APL3552', 'O'), ('5.5V', 'Voltage'), ('2A', 'Current'), ('Active', 'O'), ('High', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('236', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>ICswitches5.5VSOT-236</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1777,16 +1595,6 @@
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('TRANSCEIVER', 'O'), ('THVD1450', 'O'), ('RS', 'O'), ('-', 'Package'), ('485', 'Package'), ('7V', 'Voltage'), ('(', 'IGNORE'), ('MAX', 'O'), (')', 'IGNORE'), ('Half', 'Tolerance'), ('SOIC8', 'Package'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>IC7VHalf-485SOIC8</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1848,16 +1656,6 @@
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('LTC4411', 'O'), ('OR', 'O'), ('CTRLR', 'O'), ('P', 'Type'), ('-', 'Type'), ('CH', 'Type'), ('2.6', 'Voltage'), ('~', 'Voltage'), ('5.5V', 'Voltage'), ('2.6A', 'Current'), ('11', 'Package'), ('TSOT235', 'O'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>ICP-CH2.6~5.5V11</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1918,16 +1716,6 @@
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('P', 'Size'), ('=', 'Size'), ('2.54mm', 'Size'), ('96', 'Pin_Count'), ('Position', 'Pin_Count'), ('Assembly', 'Category'), ('Receptacle', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('R', 'Type'), ('Type', 'Type'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>CONNAssemblyReceptacleRightAngleRTypeP=2.54mm96Position</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1993,16 +1781,6 @@
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('Male', 'O'), ('Nylon', 'O'), ('Single', 'O'), ('UL94V0', 'O'), ('06PIN', 'Pin_Count'), ('125V', 'Voltage'), ('1A', 'Current'), ('P', 'Size'), ('=', 'Size'), ('1.5mm', 'Size'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>CONNRightAngle125VP=1.5mm06PIN</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2065,16 +1843,6 @@
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('SN74LVC16244A', 'Package'), ('1.65', 'Voltage'), ('~', 'Voltage'), ('3.6V', 'Voltage'), ('16Bit', 'O'), ('Buffer', 'O'), ('/', 'O'), ('Driver', 'Category'), ('3', 'O'), ('-', 'O'), ('state', 'O'), ('TSSOP', 'Package'), ('-', 'Package'), ('48', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>ICDriver1.65~3.6VSN74LVC16244ATSSOP-48</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2139,16 +1907,6 @@
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('LTC4331I', 'O'), ('I2C', 'O'), ('Slave', 'O'), ('EXTEND', 'O'), ('OVER', 'O'), ('DIFFERENTI', 'O'), ('3', 'Voltage'), ('~', 'Voltage'), ('3.5V', 'Voltage'), ('QFN20', 'Package'), ('(', 'IGNORE'), ('4x5mm', 'Size'), (')', 'IGNORE'), ('SMD', 'Process_Type'), ('ROHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>IC3~3.5VQFN204x5mm</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2213,16 +1971,6 @@
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('Step', 'O'), ('-', 'O'), ('Down', 'O'), ('Converter', 'O'), ('RT6200', 'O'), ('36V', 'Voltage'), ('0.6A', 'Current'), ('SOT23', 'Package'), ('-', 'Package'), ('6', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>IC36VSOT23-6</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2283,16 +2031,6 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('SWITCH', 'Type'), ('TS3A27518E', 'O'), ('6CH', 'Inductance'), ('qSPI', 'Package'), ('1', 'Power'), (':', 'Power'), ('2', 'Power'), ('L', 'Power'), ('-', 'Package'), ('4', 'Package'), ('1.65', 'Voltage'), ('~', 'O'), ('3.6V', 'Voltage'), ('TSSOP24', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>ICSWITCH1.653.6V1:2LqSPI-4TSSOP24</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2354,16 +2092,6 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('MP28164', 'O'), ('REG', 'O'), ('BUCK', 'O'), ('BST', 'O'), ('ADJ', 'O'), ('1.8', 'Voltage'), ('~', 'Voltage'), ('5.5V', 'Voltage'), ('4.2A', 'Current'), ('11QFN', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>IC1.8~5.5V11QFN</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2428,16 +2156,6 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>[('USB', 'Category'), ('Type', 'Type'), ('C', 'Type'), ('Female', 'O'), ('90', 'O'), ('∘', 'O'), ('3A', 'Current'), ('100V', 'Voltage'), ('Right', 'Type'), ('Angle', 'Type'), ('L', 'Size'), ('=', 'Size'), ('9.85mm', 'Size'), ('24PIN', 'Pin_Count'), ('G', 'O'), ('/', 'O'), ('F', 'O'), ('standard', 'O'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>USBTypeCRightAngle100VL=9.85mm24PIN</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2498,16 +2216,6 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('BUFFER', 'O'), ('SCHMIT', 'Type'), ('TRIG', 'O'), ('SOT23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>ICSCHMITSOT23-5</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2568,16 +2276,6 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('PWM', 'O'), ('D2D', 'O'), ('CONV', 'O'), ('A8501', 'O'), ('1MHZ', 'Frequency'), ('SOT', 'Package'), ('-', 'Package'), ('25', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>ICSOT-25</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2642,16 +2340,6 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('SN74LV1T125DBVR', 'Package'), ('BUF', 'O'), ('NON', 'O'), ('-', 'O'), ('INVERT', 'O'), ('5.5V', 'Voltage'), ('SOT', 'Package'), ('-', 'Package'), ('235', 'Package'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>IC5.5VSN74LV1T125DBVRSOT-235</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2717,16 +2405,6 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('5P', 'Pin_Count'), ('XLR', 'O'), ('Chassis', 'Category'), ('Female', 'O'), ('Right', 'Type'), ('Angle', 'Type'), ('with', 'Type'), ('push', 'Type'), ('button', 'Type'), ('and', 'IGNORE'), ('94V', 'Voltage'), ('-', 'Package'), ('0', 'Voltage'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>CONNChassisRightAnglewithpushbutton94V0-5P</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2788,16 +2466,6 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('5P', 'Pin_Count'), ('XLR', 'O'), ('Chassis', 'Category'), ('Male', 'Type'), ('Right', 'Type'), ('Angle', 'Type'), ('and', 'IGNORE'), ('94', 'O'), ('-', 'O'), ('V0', 'O'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>CONNChassisMaleRightAngle5P</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2862,16 +2530,6 @@
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('TLV70450', 'O'), ('REG', 'O'), ('LDO', 'O'), ('5V', 'Voltage'), ('0.15A', 'Current'), ('SOT23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>IC5VSOT23-5</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2937,16 +2595,6 @@
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('TPS562200', 'O'), ('17V', 'Voltage'), ('2A', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('236', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>IC17VSOT-236</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3012,16 +2660,6 @@
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('TPS563200', 'O'), ('17V', 'Voltage'), ('3A', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('236', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>IC17VSOT-236</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3086,16 +2724,6 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('2.64V', 'Voltage'), ('SUPPLY', 'O'), ('MONITOR', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>IC2.64VSOT-23-5</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3156,16 +2784,6 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('SENSOR', 'O'), ('TEMP', 'O'), ('13Bit', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('6P', 'Pin_Count'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>ICSOT-23-6P</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3230,16 +2848,6 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('VOLT', 'O'), ('REF', 'O'), ('LDO', 'O'), ('4.096V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>IC4.096VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3300,16 +2908,6 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('SW', 'Type'), ('BUCK', 'O'), ('200mA', 'Current'), ('DFN', 'Package'), ('-', 'Package'), ('8', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>ICSWDFN-8</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3372,16 +2970,6 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('LDO', 'O'), ('REG', 'O'), ('20mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>ICSOT-23-5</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3442,16 +3030,6 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('OPAMP', 'O'), ('JFET', 'O'), ('R', 'O'), ('-', 'Package'), ('R', 'O'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>IC-SOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3512,16 +3090,6 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('OPAMP', 'O'), ('CMOS', 'O'), ('R', 'O'), ('-', 'Package'), ('R', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>IC-SOT-23</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3582,16 +3150,6 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>[('IND', 'Category'), (',', 'IGNORE'), ('FERRITE', 'O'), ('1.5A', 'Current'), ('11', 'Resistance'), ('Ω', 'Resistance'), ('0805', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>IND11Ω0805</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3657,16 +3215,6 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('EEPROM', 'O'), ('24LC512', 'O'), ('512KBIT', 'O'), ('400kHz', 'Frequency'), ('2.5', 'O'), ('~', 'O'), ('5.5V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>IC5.5VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3728,16 +3276,6 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('LED', 'Category'), ('DRVR', 'O'), ('REG', 'O'), ('PWM', 'O'), ('TPS92515', 'O'), ('5.5', 'Voltage'), ('~', 'O'), ('42V', 'Voltage'), ('2A', 'Current'), ('10HVSSOP', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>ICLED5.542V10HVSSOP</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3798,16 +3336,6 @@
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('BUCK', 'O'), ('ADJ', 'O'), ('2A', 'Current'), ('SYNC', 'O'), ('SOT23', 'Package'), ('-', 'Package'), ('6', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>ICSOT23-6</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3876,16 +3404,6 @@
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('LDO', 'O'), ('SGM2021', 'O'), ('-', 'Package'), ('3.3YN3', 'O'), ('3.3V', 'Voltage'), ('0.4W', 'Power'), ('SOT', 'Package'), ('-', 'Package'), ('233', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>IC3.3V0.4W-SOT-233</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3950,16 +3468,6 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('Supervisory', 'O'), ('Manual', 'O'), ('Reset', 'O'), ('Input', 'O'), ('SGM811', 'O'), ('-', 'O'), ('SXKA4', 'O'), ('/', 'O'), ('TR', 'O'), ('2.93V', 'Voltage'), ('20mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('143', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>IC2.93VSOT-143</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4024,16 +3532,6 @@
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('TxRx', 'O'), ('3.3V', 'Voltage'), ('RS485', 'O'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>IC3.3VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4095,16 +3593,6 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('CTRLR', 'O'), ('HOT', 'O'), ('SWAP', 'O'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>ICSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4166,16 +3654,6 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('DIGITAL', 'O'), ('TEMP', 'O'), ('SENSOR', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('6', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>ICSOT-23-6</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4241,16 +3719,6 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('3.3V', 'Voltage'), ('500mA', 'Current'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>IC3.3VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4315,16 +3783,6 @@
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('VOLT', 'O'), ('REFERENCE', 'O'), ('LDO', 'O'), ('5V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>IC5VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4386,16 +3844,6 @@
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('OPAMP', 'O'), ('R', 'O'), ('-', 'O'), ('R', 'O'), ('4.25MHz', 'Frequency'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>ICSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4457,16 +3905,6 @@
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('CMOS', 'O'), ('SWITCH', 'Type'), ('SPST', 'O'), ('SOT23', 'Package'), ('-', 'Package'), ('6', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>ICSWITCHSOT23-6</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4528,16 +3966,6 @@
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('D2D', 'O'), ('CONV', 'O'), ('350mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>ICSOT-23</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4603,16 +4031,6 @@
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('REG', 'O'), ('LDO', 'O'), ('TPS709B50', 'O'), ('150mA', 'Current'), ('Vin2.7', 'O'), ('~', 'O'), ('30V', 'Voltage'), ('with', 'O'), ('Enable', 'O'), ('SOT', 'Package'), ('-', 'Package'), ('235', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>IC30VSOT-235</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4673,16 +4091,6 @@
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('VREF', 'O'), ('XFET', 'O'), ('7', 'Voltage'), ('-', 'Package'), ('18V', 'Voltage'), ('30mA', 'Current'), ('MSOP', 'Package'), ('-', 'Package'), ('8', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>IC718V-MSOP-8</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4747,16 +4155,6 @@
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('Supervisory', 'O'), ('Manual', 'O'), ('Reset', 'O'), ('Input', 'O'), ('SGM811B', 'O'), ('2.93V', 'Voltage'), ('20mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('143', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>IC2.93VSOT-143</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4817,16 +4215,6 @@
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('Socket', 'Category'), ('P', 'Size'), ('=', 'Size'), ('1.0mm', 'Size'), ('2x15P', 'Pin_Count'), ('Tin', 'Category'), ('Plated', 'Type'), ('Right', 'Type'), ('angle', 'Type'), ('Dual', 'O'), ('Row', 'O'), ('latch', 'Type'), ('type', 'Type'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>CONNSocketTinPlatedRightanglelatchtypeP=1.0mm2x15P</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4887,16 +4275,6 @@
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), ('Header', 'Category'), ('1x4P', 'Pin_Count'), ('Right', 'Type'), ('angle', 'Type'), ('P', 'Size'), ('=', 'Size'), ('2.54mm', 'Size'), ('H', 'Size'), ('=', 'Size'), ('6.6mm', 'Size'), ('Gold', 'O'), ('DIP', 'O'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>CONNHeaderRightangleP=2.54mmH=6.6mm1x4P</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4959,16 +4337,6 @@
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('TPS92691Q', 'O'), ('LED', 'Category'), ('Driver', 'Category'), ('4.5', 'Package'), ('-', 'Package'), ('65V', 'Voltage'), ('HTSSOP16', 'Package'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>ICLEDDriver65V4.5-HTSSOP16</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5033,16 +4401,6 @@
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('3.3V', 'Voltage'), ('100mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('89', 'Package'), (',', 'IGNORE'), ('ROHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>IC3.3VSOT-89</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5110,16 +4468,6 @@
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), ('LED', 'Category'), ('Driver', 'Category'), ('LTC3783E', 'O'), ('CTRLR', 'O'), ('PWM', 'O'), ('3', 'O'), ('~', 'O'), ('36V', 'Voltage'), ('DFN', 'Package'), ('-', 'Package'), ('16', 'Package'), ('(', 'IGNORE'), ('5x4mm', 'Size'), (')', 'IGNORE'), ('SMD', 'Process_Type'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>ICLEDDriver36VDFN-165x4mm</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5179,16 +4527,6 @@
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('CTRLR', 'O'), ('HOTSWAP', 'O'), ('16.5V', 'Voltage'), ('TSOP', 'Package'), ('-', 'Package'), ('8', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>IC16.5VTSOP-8</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5247,16 +4585,6 @@
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('SW', 'Type'), ('REG', 'O'), ('1.25A', 'Current'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>ICSWSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5317,16 +4645,6 @@
         </is>
       </c>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('MICROPWR', 'O'), ('SOT23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>ICSOT23-5</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5391,16 +4709,6 @@
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('5.0V', 'Voltage'), ('100mA', 'Current'), ('SOT', 'Package'), ('-', 'Package'), ('89', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>IC5.0VSOT-89</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5465,16 +4773,6 @@
         </is>
       </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('Low', 'O'), ('power', 'O'), ('LDO', 'O'), ('1.5V', 'Voltage'), ('SOT', 'Package'), ('-', 'Package'), ('23', 'Package'), ('-', 'Package'), ('5', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>IC1.5VSOT-23-5</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5539,16 +4837,6 @@
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('RT9058', 'O'), ('3.3V', 'Voltage'), ('0.1A', 'Current'), ('SOT89', 'Package'), ('-', 'Package'), ('3', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>IC3.3VSOT89-3</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5611,16 +4899,6 @@
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wire', 'Category'), ('To', 'O'), ('Board', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('K', 'Type'), ('-', 'Type'), ('TYPE', 'Type'), ('2X3P', 'Pin_Count'), ('2.0mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>CONNWireBoardRightAngleK-TYPE2.0mm2X3P</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5683,16 +4961,6 @@
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wire', 'Category'), ('To', 'O'), ('Board', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('K', 'Type'), ('-', 'Type'), ('TYPE', 'Type'), ('2X4P', 'Pin_Count'), ('2.0mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>CONNWireBoardRightAngleK-TYPE2.0mm2X4P</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5755,16 +5023,6 @@
         </is>
       </c>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wire', 'Category'), ('To', 'O'), ('Board', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('K', 'Type'), ('-', 'Type'), ('TYPE', 'Type'), ('2X6P', 'Pin_Count'), ('2.0mm', 'Size'), ('White', 'Color'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>CONNWireBoardRightAngleK-TYPE2.0mm2X6P</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5827,16 +5085,6 @@
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wire', 'Category'), ('To', 'O'), ('Board', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('K', 'Type'), ('-', 'Type'), ('TYPE', 'Type'), ('2X8P', 'Pin_Count'), ('2.0mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>CONNWireBoardRightAngleK-TYPE2.0mm2X8P</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5897,16 +5145,6 @@
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wafer', 'O'), ('Right', 'Type'), ('Angle', 'Type'), ('(', 'IGNORE'), ('turn', 'O'), ('right', 'O'), (')', 'IGNORE'), ('1x4P', 'Pin_Count'), ('2.54mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>CONNRightAngle2.54mm1x4P</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5969,16 +5207,6 @@
         </is>
       </c>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Wire', 'Category'), ('To', 'O'), ('Board', 'O'), ('Vertical', 'Type'), ('Type', 'Type'), ('2X6P', 'Pin_Count'), ('2.0mm', 'Size'), ('Black', 'Color'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>CONNWireVerticalType2.0mm2X6P</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6039,16 +5267,6 @@
         </is>
       </c>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('TL431A', 'O'), ('VREF', 'O'), ('SHUNT', 'O'), ('ADJ', 'O'), ('SOT23', 'Package'), ('-', 'Package'), ('3', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>ICSOT23-3</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6109,16 +5327,6 @@
         </is>
       </c>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('DAC', 'O'), ('LTC2654BC', 'O'), ('4.096V', 'Voltage'), ('16BITS', 'O'), ('SSOP', 'Package'), ('-', 'Package'), ('16', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>IC4.096VSSOP-16</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6183,16 +5391,6 @@
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('MICRO', 'O'), ('-', 'O'), ('PWR', 'O'), ('2.048V', 'Voltage'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>IC2.048VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6257,16 +5455,6 @@
         </is>
       </c>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[('IC', 'Category'), (',', 'IGNORE'), ('REG', 'O'), ('LDO', 'O'), ('5V', 'Voltage'), ('500mA', 'Current'), ('SOIC', 'Package'), ('-', 'Package'), ('8', 'Package'), ('SMD', 'Process_Type'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>IC5VSOIC-8</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6327,16 +5515,6 @@
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Pin', 'Category'), ('Header', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('2X6P', 'Pin_Count'), ('2.54mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>CONNPinHeaderRightAngle2.54mm2X6P</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6397,16 +5575,6 @@
         </is>
       </c>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[('CONN', 'Category'), (',', 'IGNORE'), ('Pin', 'Category'), ('Header', 'Category'), ('Right', 'Type'), ('Angle', 'Type'), ('2X8P', 'Pin_Count'), ('2.54mm', 'Size'), ('DIP', 'O'), (',', 'IGNORE'), ('RoHS', 'Compliance')]</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>CONNPinHeaderRightAngle2.54mm2X8P</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
